--- a/biology/Botanique/Hovea/Hovea.xlsx
+++ b/biology/Botanique/Hovea/Hovea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hovea est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Faboideae, originaire d'Australie, qui comprend une quarantaine d'espèces acceptées[2].
-Ce sont des arbustes, des sous-arbrisseaux ou de petits arbres dont certaines espèces sont occasionnellement cultivées comme plantes ornementales. Les gousses et les graines sont comestibles, les feuilles de certaines espèces sont toxiques pour le bétail[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hovea est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Faboideae, originaire d'Australie, qui comprend une quarantaine d'espèces acceptées.
+Ce sont des arbustes, des sous-arbrisseaux ou de petits arbres dont certaines espèces sont occasionnellement cultivées comme plantes ornementales. Les gousses et les graines sont comestibles, les feuilles de certaines espèces sont toxiques pour le bétail.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Hovea », est un hommage à Anton Pantaleon Hove (vers 1780-vers 1820), botaniste polonais et collecteur de plantes pour les jardins botaniques de Kew[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Hovea », est un hommage à Anton Pantaleon Hove (vers 1780-vers 1820), botaniste polonais et collecteur de plantes pour les jardins botaniques de Kew.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (18 décembre 2018)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (18 décembre 2018) :
 Hovea acanthoclada F.Muell.
 Hovea acutifolia G.Don
 Hovea angustissima I.Thomps.
